--- a/src/cab/perm/falcon.lbs.floor.xlsx
+++ b/src/cab/perm/falcon.lbs.floor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDA89C-97C3-894C-8169-A575B0B5BFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89604A1D-FED0-A545-B7D8-61E5EDEE562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>criteria</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
-  </si>
-  <si>
     <t>楼层读取</t>
   </si>
   <si>
@@ -164,6 +161,10 @@
   </si>
   <si>
     <t>8d453cf0-5c80-4407-997f-06bf4cc8a662</t>
+  </si>
+  <si>
+    <t>#ROLE_ID#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -704,7 +705,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD54"/>
+      <selection activeCell="A9" sqref="A9:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -761,68 +762,68 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11">

--- a/src/cab/perm/falcon.lbs.floor.xlsx
+++ b/src/cab/perm/falcon.lbs.floor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89604A1D-FED0-A545-B7D8-61E5EDEE562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDA89C-97C3-894C-8169-A575B0B5BFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -127,6 +127,9 @@
     <t>criteria</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>楼层读取</t>
   </si>
   <si>
@@ -161,10 +164,6 @@
   </si>
   <si>
     <t>8d453cf0-5c80-4407-997f-06bf4cc8a662</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -705,7 +704,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A14"/>
+      <selection activeCell="A17" sqref="A17:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -762,68 +761,68 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11">
